--- a/Departures_Rdam_to_HS.xlsx
+++ b/Departures_Rdam_to_HS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Delft\TIL6022_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documenten\TU Delft\1. MSc TIL\Q1\TIL6022\TIL6022_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F26998D-386C-4413-BFBD-479E012BBF45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF669ED7-4230-4478-898F-9FA26F34C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{00C6AE93-6932-468E-8CCD-0352CF7EBABB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00C6AE93-6932-468E-8CCD-0352CF7EBABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Rijswijk</t>
   </si>
@@ -46,6 +57,15 @@
   </si>
   <si>
     <t>HS</t>
+  </si>
+  <si>
+    <t>spr</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>traintype</t>
   </si>
 </sst>
 </file>
@@ -398,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81DB21-E339-4C06-94CE-7DC6239D249E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -428,8 +448,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>TIME(16,5,0)</f>
         <v>0.67013888888888884</v>
@@ -458,8 +481,11 @@
         <f>TIME(16,29,0)</f>
         <v>0.68680555555555556</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>TIME(16,12,0)</f>
         <v>0.67499999999999993</v>
@@ -479,8 +505,11 @@
         <f>TIME(16,31,0)</f>
         <v>0.68819444444444444</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>TIME(16,18,0)</f>
         <v>0.6791666666666667</v>
@@ -497,8 +526,11 @@
         <f>TIME(16,36,0)</f>
         <v>0.69166666666666676</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>TIME(16,21,0)</f>
         <v>0.68125000000000002</v>
@@ -518,8 +550,11 @@
         <f>TIME(16,41,0)</f>
         <v>0.69513888888888886</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>TIME(16,31,0)</f>
         <v>0.68819444444444444</v>
@@ -539,8 +574,11 @@
         <f>TIME(16,50,0)</f>
         <v>0.70138888888888884</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>TIME(16,35,0)</f>
         <v>0.69097222222222221</v>
@@ -569,8 +607,11 @@
         <f>TIME(16,59,0)</f>
         <v>0.70763888888888893</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>TIME(16,42,0)</f>
         <v>0.6958333333333333</v>
@@ -590,8 +631,11 @@
         <f>TIME(17,1,0)</f>
         <v>0.7090277777777777</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>TIME(16,48,0)</f>
         <v>0.70000000000000007</v>
@@ -604,8 +648,11 @@
         <f>TIME(17,6,0)</f>
         <v>0.71250000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>TIME(16,51,0)</f>
         <v>0.70208333333333339</v>
@@ -622,8 +669,11 @@
         <f>TIME(17,11,0)</f>
         <v>0.71597222222222223</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>TIME(16,56,0)</f>
         <v>0.7055555555555556</v>
@@ -652,8 +702,11 @@
         <f>TIME(17,20,0)</f>
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f>TIME(17,5,0)</f>
         <v>0.71180555555555547</v>
@@ -682,8 +735,11 @@
         <f>TIME(17,29,0)</f>
         <v>0.7284722222222223</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>TIME(17,12,0)</f>
         <v>0.71666666666666667</v>
@@ -703,8 +759,11 @@
         <f>TIME(17,31,0)</f>
         <v>0.72986111111111107</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f>TIME(17,18,0)</f>
         <v>0.72083333333333333</v>
@@ -717,8 +776,11 @@
         <f>TIME(17,36,0)</f>
         <v>0.73333333333333339</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f>TIME(17,21,0)</f>
         <v>0.72291666666666676</v>
@@ -735,8 +797,11 @@
         <f>TIME(17,41,0)</f>
         <v>0.7368055555555556</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f>TIME(17,26,0)</f>
         <v>0.72638888888888886</v>
@@ -765,8 +830,11 @@
         <f>TIME(17,50,0)</f>
         <v>0.74305555555555547</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>TIME(17,35,0)</f>
         <v>0.73263888888888884</v>
@@ -795,8 +863,11 @@
         <f>TIME(17,59,0)</f>
         <v>0.74930555555555556</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>TIME(17,42,0)</f>
         <v>0.73749999999999993</v>
@@ -816,8 +887,11 @@
         <f>TIME(18,1,0)</f>
         <v>0.75069444444444444</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f>TIME(17,48,0)</f>
         <v>0.7416666666666667</v>
@@ -830,8 +904,11 @@
         <f>TIME(18,6,0)</f>
         <v>0.75416666666666676</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f>TIME(17,51,0)</f>
         <v>0.74375000000000002</v>
@@ -848,8 +925,11 @@
         <f>TIME(18,11,0)</f>
         <v>0.75763888888888886</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f>TIME(17,56,0)</f>
         <v>0.74722222222222223</v>
@@ -877,6 +957,9 @@
       <c r="G21" s="1">
         <f>TIME(18,20,0)</f>
         <v>0.76388888888888884</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
